--- a/course_table.xlsx
+++ b/course_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H519"/>
+  <dimension ref="A1:H539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20123,6 +20123,790 @@
         </is>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Bachelor of Finance, Economics and Statistics (Honours)</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>The Australian National University (ANU)</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>086222G</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>Canberra, ANU Student Central,Australian Capital Territory 2600</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Full-time - 4 years</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>$213480 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Bachelor of Medical Science (Honours)</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>University of Sydney</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>040575G</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>Camperdown/Darlington, 160 City Road,New South Wales 2006</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>$8948 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Bachelor of Science (Honours)</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>University of Sydney</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>036745F</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>Camperdown/Darlington, 160 City Road,New South Wales 2006</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>$8948 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Bachelor of Psychological Science (Honours)</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>UNSW Sydney</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>085130J</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Term 1</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>Kensington, High Street,New South Wales 2052</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Flexible Delivery - 1 years</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>$55500 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Associate Degree of Engineering</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Swinburne University of Technology</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>108893E</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Semester 1, Semester 2</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>Hawthorn, John Street,Victoria 3122</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Full-time - 2 years</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>$75280 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Bachelor of Music (Honours)</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>UNSW Sydney</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>082790G</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Term 1</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>Kensington, High Street,New South Wales 2052</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>Flexible Delivery - 1 years</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>$44500 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Bachelor of Liberal Arts and Science Honours</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>University of Sydney</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>074884B</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>Camperdown/Darlington, 160 City Road,New South Wales 2006</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>$16323 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Bachelor of Visual Arts (Honours)</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>University of Sydney</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>059186J</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>Camperdown/Darlington, 160 City Road,New South Wales 2006</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>$11100 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Bachelor of Laws (Honours)</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Murdoch University</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>093252K</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Semester 1, Semester 2</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>Perth campus, 90 South Street,Western Australia 6150</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>$33000 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Bachelor of Actuarial Studies (Honours)</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>UNSW Sydney</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>087814J</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Term 1 &amp; 3</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>Kensington, High Street,New South Wales 2052</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>Flexible Delivery - 1 years</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>$53000 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Bachelor of Laws (Honours) (4-Yr Degree)</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>University of Wollongong</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>094207G</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>March - June 2025</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>UOW Liverpool, 33 Moore Street,New South Wales 2170</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>Full-time - 4 years</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>$137700 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Bachelor of Global Logistics and Maritime Management with Honours</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>University of Tasmania</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>066196D</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Semester 1, Semester 2, Spring School (November)</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>Launceston, Newnham Drive,Tasmania 7250</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>$35656 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Bachelor of Business (Honours)</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>The University of Western Australia (UWA)</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>116197G</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Crawley, 35 Stirling Highway,Western Australia 6009</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>$None AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Bachelor of Behavioural Science (Honours Psychology)</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Queensland University of Technology (QUT)</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>061159E</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Kelvin Grove, Victoria Park Road,Queensland 4059</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>$None AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Bachelor of Business Administration (Honours)</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>The Australian National University (ANU)</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>063990B</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>Canberra, ANU Student Central,Australian Capital Territory 2600</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>$53370 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Bachelor of Education (Secondary) (Honours)</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>UNSW Sydney</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>082748K</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Term 1 &amp; 3</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Kensington, High Street,New South Wales 2052</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>Flexible Delivery - 1 years</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>$45500 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Bachelor of Architectural Design / Bachelor of Property Economics</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Queensland University of Technology (QUT)</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>116652M</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Gardens Point, 2 George Street,Queensland 4000</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Full-time - 4.5 years</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>$168300 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Bachelor of Theology</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Sydney College of Divinity</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>063703C</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Nazarene Theological College, 40 Woodlands Drive,Queensland 4164</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>$None AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Bachelor of Media (Honours)</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>UNSW Sydney</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>082194F</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Term 1</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Kensington, High Street,New South Wales 2052</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>Flexible Delivery - 1 years</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>$43000 AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Bachelor of Science (Degree with Honours)</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>The University of Melbourne</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>014791D</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>February, July</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Parkville, Grattan Street,Victoria 3010</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>Full-time - 1 years</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>$58144 AUD</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
